--- a/erp_src_sql_help.xlsx
+++ b/erp_src_sql_help.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovel\Desktop\Emax_교육_강자은\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1995,7 +1995,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그룹웨어, 템플릿</t>
+    <t xml:space="preserve">그룹웨어, 템플릿
+확인하기 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3067,8 +3068,8 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3326,7 +3327,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
